--- a/biology/Zoologie/Guerlinguetus_aestuans/Guerlinguetus_aestuans.xlsx
+++ b/biology/Zoologie/Guerlinguetus_aestuans/Guerlinguetus_aestuans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sciurus aestuans
-Le Grand Guerlinguet[3] ou Écureuil des Guyanes (Guerlinguetus aestuans) est un écureuil arboricole endémique d'Amérique du Sud, proche du genre Sciurus. On le rencontre dans le Sud-est de la Colombie, au Brésil, au Guyana, en Guyane, au Suriname et au Venezuela[4].
+Le Grand Guerlinguet ou Écureuil des Guyanes (Guerlinguetus aestuans) est un écureuil arboricole endémique d'Amérique du Sud, proche du genre Sciurus. On le rencontre dans le Sud-est de la Colombie, au Brésil, au Guyana, en Guyane, au Suriname et au Venezuela.
 Son pelage brun foncé le dissimule parmi les branchages du sous-bois. Il se nourrit principalement de fruits et de noix, mais peut occasionnellement consommer des œufs et des oisillons.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs sous-espèces sont distinguées[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs sous-espèces sont distinguées :
 S. a. aestuans 
 S. a. alphonsei 
 S. a. garbei 
